--- a/Informacion/Proyecto 1.xlsx
+++ b/Informacion/Proyecto 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loosc\OneDrive\Escritorio\USAC\VJUN2020\Compi1\[OCL1]PY1_201709140\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loosc\OneDrive\Escritorio\USAC\VJUN2020\Compi1\[OCL1]PY1_201709140\Informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549846E-0371-4A7A-9AFF-9976AE4DB871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B7F2ED-D6EA-4887-9EAA-C90DA68D907C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4770" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21945" yWindow="-2700" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -235,12 +235,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,11 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,53 +586,53 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -626,7 +640,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -637,7 +651,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -648,7 +662,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -681,7 +695,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
@@ -758,7 +772,7 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
@@ -835,7 +849,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -846,7 +860,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -857,7 +871,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
@@ -868,7 +882,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
@@ -879,7 +893,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
@@ -890,7 +904,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
@@ -901,7 +915,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
@@ -923,7 +937,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
@@ -934,7 +948,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" t="s">
@@ -945,21 +959,21 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -967,21 +981,21 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Informacion/Proyecto 1.xlsx
+++ b/Informacion/Proyecto 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loosc\OneDrive\Escritorio\USAC\VJUN2020\Compi1\[OCL1]PY1_201709140\Informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B7F2ED-D6EA-4887-9EAA-C90DA68D907C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B66771-16F2-4B3D-A599-5838A2F56440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21945" yWindow="-2700" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4770" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>Token</t>
   </si>
@@ -220,6 +220,51 @@
   </si>
   <si>
     <t>Identificador</t>
+  </si>
+  <si>
+    <t>if (at.getTipo() == 0)//Entero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        if (compara == 23)//Diferente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        }else if (compara == 24)//igual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        else if (compara == 25)//menor o igual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        else if (compara == 26)//menor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        else if (compara == 27)//mayor igual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        else if (compara == 28)//mayor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    else if (at.getTipo() == 1)//Cadena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        else if (compara == 24)//igual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    else if (at.getTipo() == 2)//flotante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    else if (at.getTipo() == 3)//fecha</t>
   </si>
 </sst>
 </file>
@@ -554,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +960,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
@@ -1012,6 +1057,421 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Informacion/Proyecto 1.xlsx
+++ b/Informacion/Proyecto 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loosc\OneDrive\Escritorio\USAC\VJUN2020\Compi1\[OCL1]PY1_201709140\Informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B66771-16F2-4B3D-A599-5838A2F56440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C38AF0-A5BF-4CE1-B399-DD29F713C7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4770" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
